--- a/PosVentaYBRWXX.xlsx
+++ b/PosVentaYBRWXX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Posventa Y BONO</t>
   </si>
@@ -23,16 +23,10 @@
     <t>POSES</t>
   </si>
   <si>
-    <t>BRW02</t>
+    <t>175</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>141</t>
+    <t>BRW01</t>
   </si>
 </sst>
 </file>
@@ -96,12 +90,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PosVentaYBRWXX.xlsx
+++ b/PosVentaYBRWXX.xlsx
@@ -20,13 +20,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSES</t>
+    <t>POSCA</t>
   </si>
   <si>
-    <t>175</t>
+    <t>505</t>
   </si>
   <si>
-    <t>BRW01</t>
+    <t>BRW02</t>
   </si>
 </sst>
 </file>

--- a/PosVentaYBRWXX.xlsx
+++ b/PosVentaYBRWXX.xlsx
@@ -20,13 +20,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSCA</t>
+    <t>POSES</t>
   </si>
   <si>
-    <t>505</t>
+    <t>175</t>
   </si>
   <si>
-    <t>BRW02</t>
+    <t>BRW01</t>
   </si>
 </sst>
 </file>
